--- a/document/書籍まとめ.xlsx
+++ b/document/書籍まとめ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>「米軍式　人を動かすマネジメント」：田中靖浩著</t>
     <rPh sb="1" eb="3">
@@ -974,6 +974,1814 @@
     <rPh sb="29" eb="31">
       <t>コンナン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーヘッドをどの製品(サービス)に負担させるかの判断</t>
+    <rPh sb="10" eb="12">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→直接原価計算(オーバーヘッドは原価に組み込まず、あとから一括して差し引く)</t>
+    <rPh sb="1" eb="3">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ABC原価計算(Activeity Based Costing)</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人を動かす会計</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頑張った人ほど損をする現象</t>
+    <rPh sb="0" eb="2">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KPIに何を組み込むか</t>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(例)部下の残業代と有給消化率を評価に組み込む</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ザンギョウダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→KPIの設定によって、誤った方向に進む</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→到達すべきもの、一定量を下回ると危ないもの：リスクアラーム</t>
+    <rPh sb="1" eb="3">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能に劣る戦闘機で勝てる理由</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セントウキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視野が広かった</t>
+    <rPh sb="0" eb="2">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操縦桿が軽かった</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュウカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OODA…臨機応変、相手中心、現場中心</t>
+    <rPh sb="5" eb="9">
+      <t>リンキオウヘン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※PDCA…計画中心、自分中心、トップダウン中心</t>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→アジャイル(俊敏)、直観、レッスン・ラーンド(経験や将来を想定した演習などから学ぶ)</t>
+    <rPh sb="7" eb="9">
+      <t>シュンビン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョッカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲を観察し、素早く動く</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場の雰囲気に合わせてアドリブするエンターテイナー</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前に準備した資料に合わせて講演するビジネス講演</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやって「OODAできる環境」を作るか？</t>
+    <rPh sb="13" eb="15">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→消極的なミスは許さないが、積極的なミスは許す　(リッツ・カールトンホテル)</t>
+    <rPh sb="1" eb="4">
+      <t>ショウキョクテキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※やるべきことをやらないのはNG、より多くのことをやろうとして失敗したのはOK</t>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ものづくり中心・需要が旺盛・ライバル少数」→PDCAでよい</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[情報サービス中心・需要不明・ライバル多数」→OODAを適用すべき</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※新規ビジネスの場合もOODAしか適用できない→正確な予算設定など不可能</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスの「致命的脆弱性」＝顧客の「決定的なポイント」でもある</t>
+    <rPh sb="6" eb="9">
+      <t>チメイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケッテイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品やサービスの優位性より、相手の困りごとや悩みにどんなソリューションを提供するかの説明に重点を置く</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ユウイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジュウテン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※OODAでは必ず「相手」主体で考える</t>
+    <rPh sb="7" eb="8">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ラストワンマイルに適用すると効果大</t>
+    <rPh sb="10" eb="12">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3章</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッション・コマンドで部下を「動かす」</t>
+    <rPh sb="11" eb="13">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日2時間しか営業しないビールスタンド</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身の「差別化要因」である技術を共有することで、全体の活性化を図る</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サベツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カッセイカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→特許を取得せず、技術公開を進めることで広く普及させることと類似</t>
+    <rPh sb="1" eb="3">
+      <t>トッキョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フキュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ルイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦って勝つのではなく、戦わずして勝つ</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応援してくれるパートナーを増やす</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ミッションを掲げ、応援してもらえるような準備を進める。</t>
+    <rPh sb="7" eb="8">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→一人で計画を立て、儲けようとするという戦略では応援が得られない</t>
+    <rPh sb="1" eb="3">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機動力を取り戻す</t>
+    <rPh sb="0" eb="3">
+      <t>キドウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルールを守ることが正しいか？</t>
+    <rPh sb="4" eb="5">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ミッションを実現することが第一の目標</t>
+    <rPh sb="7" eb="9">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部統制は業績にブレーキをかける。業績がいまいちのときには統制を緩める必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ギョウセキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由と勝手は違う</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→メンバーが自主的に動くために必要なものが「ミッション・コマンド」</t>
+    <rPh sb="6" eb="9">
+      <t>ジシュテキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→上官がこれを明らかにし、チームで共有することが必要</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何のために(why)</t>
+    <rPh sb="1" eb="2">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何を目指すか(what) = task</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロイセンの参謀、ヘルムート・フォン・モルトケ</t>
+    <rPh sb="6" eb="8">
+      <t>サンボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄道と電信を利用した「分進合撃による外戦」</t>
+    <rPh sb="0" eb="2">
+      <t>テツドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→訓令戦術：発令者の意図は明確にするが、受令者任務の細部については示されない(目標は示される)</t>
+    <rPh sb="1" eb="3">
+      <t>クンレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センジュツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハツレイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジュ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイブ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cf)号令：細部の行動のみ発令、命令：意図と細部の行動両方を発令</t>
+    <rPh sb="3" eb="5">
+      <t>ゴウレイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハツレイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハツレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上官の意図の範囲内で、独断によって作業できる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドクダン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択と分散</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス的な外戦…コラボレーションによるビジネス</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明確なミッション</t>
+    <rPh sb="0" eb="2">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベクトルを合わせる</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームの信頼関係</t>
+    <rPh sb="4" eb="6">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準化とその限界を知る</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてを統一するのではなく、最低限の標準だけを設ける</t>
+    <rPh sb="4" eb="6">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→あとはそれぞれ分散</t>
+    <rPh sb="8" eb="10">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「共感で巻き込むリーダー」</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4章</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカル・インテリジェンスで「動ける」組織を目指す</t>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロバート・マクマナラ…データ主義</t>
+    <rPh sb="14" eb="16">
+      <t>シュギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能率→数字で測れる「効率」へ</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→コンピュータの普及により「数字」が過度に偏重されている</t>
+    <rPh sb="8" eb="10">
+      <t>フキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intelligence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工されていない「生データ」</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判断・行動に直結する加工されたデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョッケツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスに決定的なインテリジェンスとは</t>
+    <rPh sb="5" eb="8">
+      <t>ケッテイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売り上げよりも「限界利益」が大事</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※限界利益＝売上－変動費</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限界利益をリスクアラームとして設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ただし、オーバーヘッドの扱いをどうするか明確にしておく</t>
+    <rPh sb="13" eb="14">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①数字と接客のそれぞれについて最低限の標準を定める</t>
+    <rPh sb="1" eb="3">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッキャク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ミッション・コマンドにしたがった臨機応変を認める</t>
+    <rPh sb="17" eb="21">
+      <t>リンキオウヘン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リッツ・カールトン：エンパワーメント予算 $2,000 / man</t>
+    <rPh sb="18" eb="20">
+      <t>ヨサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→その予算の範囲内なら顧客のために何をやってもよい</t>
+    <rPh sb="3" eb="5">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字＋心理学</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンリガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢いに求めて、人に責めず(もとめず）　…　孫子</t>
+    <rPh sb="0" eb="1">
+      <t>イキオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字事業…失敗を認め、それまでの努力をなかったことにしてしまうから「止められない」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな予算でも実現可能なプロジェクトを、あえて一度低予算で承認してから、</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>テイヨサン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高い予算で出しなおさせてから承認してやる気を与えた社長</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聴覚刺激を始め、五感を駆使して「差別化」して顧客にいいものを高く買わせる心理学</t>
+    <rPh sb="0" eb="2">
+      <t>チョウカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サベツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>シンリガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ブランディングの重要性。独自性とは？</t>
+    <rPh sb="9" eb="12">
+      <t>ジュウヨウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ドクジセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見えない問題を見抜く</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリン・パウエルの情報についての4カ条</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・わかっていることを言え</t>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・わかっていないことを言え</t>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・その上で、どう考えるのかを言え</t>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・この3つを常に区別しろ</t>
+    <rPh sb="6" eb="7">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏付けが取れている情報</t>
+    <rPh sb="0" eb="2">
+      <t>ウラヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏付けが取れていない情報</t>
+    <rPh sb="0" eb="2">
+      <t>ウラヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→わかっているつもりになってしまってはいけない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セグメント化によって組織の内部対立を生まないようにする</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイリツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→セグメント化した評価によって、全体としての課題が見えなくなることがある</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データに現れない「機会損失」を感じ取ることができるか</t>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→感じ取って、すぐに対応できる判断が必要</t>
+    <rPh sb="1" eb="2">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルかつクリティカルなデータを「探す」ために、常識を「捨て」、カギとなる指標を少なく「絞る」</t>
+    <rPh sb="18" eb="19">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウシキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5章</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-OODAで戦う機動戦経営</t>
+    <rPh sb="7" eb="8">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前にD(Design)は必要</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operational Design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指揮官が指針を示す</t>
+    <rPh sb="0" eb="3">
+      <t>シキカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・方法・資源・リスクを分析、検討する</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→正しい問題を設定することが目的</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指揮官と幕僚が対話(dialogue)によってたがいに理解し共有する</t>
+    <rPh sb="0" eb="3">
+      <t>シキカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バクリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイワ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作戦の大筋(数値目標だけのEndsではない)を可視化する</t>
+    <rPh sb="0" eb="2">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオスジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①「対話でゴールに至る道筋を明らかにする」姿勢で計画をデザイン(Design)する</t>
+    <rPh sb="2" eb="4">
+      <t>タイワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミチスジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②臨機応変で直観的な「観察(Observe)・方向付け(Orient)・決心(Decide)・実行(Act)」のループを素早く回して、アジャイルを実現する</t>
+    <rPh sb="1" eb="5">
+      <t>リンキオウヘン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チョッカンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンサツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ホウコウヅ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケッシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③実行した結果をレッスンズ・ラーンドの姿勢で、再び対話によって振り返りつつ、そこから学習して次の計画デザインに活かす</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→現場重視。事後的な臨機応変重視。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジゴテキ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>リンキオウヘン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任せて動かし成長させる</t>
+    <rPh sb="0" eb="1">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://vaaaaanquish.jp/pdca/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.itmedia.co.jp/news/articles/1603/09/news149.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.nikkeibook.com/book_detail/32085/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -981,7 +2789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +2804,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1015,17 +2831,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1318,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1635,22 +3462,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:5">
       <c r="D65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:5">
       <c r="D66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:5">
       <c r="D67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:5">
       <c r="B69">
         <v>2</v>
       </c>
@@ -1658,18 +3485,631 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:5">
       <c r="D70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:5">
       <c r="D71" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="73" spans="2:5">
+      <c r="D73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="D75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="E79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="E80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="E82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="D85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="D86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="D88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="D89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="D93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="D94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="D96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="D98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="D101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="D102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="D107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="D108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="D112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="D113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="D115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="D117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="E119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="E124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="D126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="E127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="E128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="E129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="E130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="D133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="D134" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="D137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="D140" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="E141" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="E142" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="E143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="D144" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="D146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="E147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="D149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="D153" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="D154" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="D156" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="D157" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="D160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="D161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="D163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="D164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="D166" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="D167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="D169" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="D170" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="D173" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="D175" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="D177" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="D178" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="D180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="D181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="D184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="D185" t="s">
+        <v>152</v>
+      </c>
+      <c r="G185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="D186" t="s">
+        <v>153</v>
+      </c>
+      <c r="G186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="D187" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="D188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="D189" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="D191" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="D192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="D194" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="D195" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="D197" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>164</v>
+      </c>
+      <c r="B199" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="C201" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="D202" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="D203" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="D204" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="D205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="D206" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="C208" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="C209" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="C210" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="D211" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B215" r:id="rId1"/>
+    <hyperlink ref="B216" r:id="rId2"/>
+    <hyperlink ref="B217" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
